--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -4468,7 +4468,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1012545.45</t>
+          <t>1023835.59</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>9502971.11</t>
+          <t>9575831.11</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7711,17 +7711,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>43000.00</t>
+          <t>45000.00</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8322,17 +8322,17 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>141974.00</t>
+          <t>148174.00</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8369,17 +8369,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>134500.00</t>
+          <t>144500.00</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8416,17 +8416,17 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>374833.00</t>
+          <t>430493.00</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8463,17 +8463,17 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>75500.00</t>
+          <t>90204.22</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8510,17 +8510,17 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>105</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>359128.34</t>
+          <t>448831.34</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -8557,17 +8557,17 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>15500.00</t>
+          <t>17500.00</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -8698,17 +8698,17 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>141294.00</t>
+          <t>189394.00</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -8745,17 +8745,17 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>122760.60</t>
+          <t>128760.60</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -8792,17 +8792,17 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>37500.00</t>
+          <t>39500.00</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -8933,17 +8933,17 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>191118.00</t>
+          <t>223618.00</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -1319,17 +1319,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>130281.00</t>
+          <t>141171.00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>430</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3926991.80</t>
+          <t>4439957.92</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>305148.39</t>
+          <t>350148.39</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1107277.28</t>
+          <t>1219245.89</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>846</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>7521045.92</t>
+          <t>7693397.41</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1176799.93</t>
+          <t>1221799.93</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>9575831.11</t>
+          <t>9866904.14</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1664154.92</t>
+          <t>1695798.92</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>5095</t>
+          <t>5096</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>35647046.99</t>
+          <t>35690046.99</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1642</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>6295159.03</t>
+          <t>6317634.03</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>861</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>5200048.93</t>
+          <t>5245048.93</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7993,17 +7993,17 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>125500.00</t>
+          <t>170500.00</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -1460,17 +1460,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>528</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>431</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4439957.92</t>
+          <t>4650422.91</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>350148.39</t>
+          <t>377049.39</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1836,17 +1836,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1219245.89</t>
+          <t>1455636.89</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>774233.86</t>
+          <t>887107.86</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3904,17 +3904,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>262319.82</t>
+          <t>282300.84</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -7993,17 +7993,17 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>170500.00</t>
+          <t>215500.00</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -10390,17 +10390,17 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>839</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>10473450.26</t>
+          <t>10477629.26</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>2462325.30</t>
+          <t>2507325.30</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -661,17 +661,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>694</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>675</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1814154.57</t>
+          <t>1824154.57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -755,17 +755,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>1515</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14044715.40</t>
+          <t>14054715.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>407</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3578933.62</t>
+          <t>3677638.93</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>847</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>7693397.41</t>
+          <t>7719902.19</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -7241,17 +7241,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>5096</t>
+          <t>5107</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>4664</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>35690046.99</t>
+          <t>36114332.94</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>857</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7486,7 +7486,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>3467312.22</t>
+          <t>3501929.22</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>862</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>5245048.93</t>
+          <t>5290048.93</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>2507325.30</t>
+          <t>2517602.30</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
